--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/help-doc-iam.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/help-doc-iam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -2144,102 +2144,6 @@
     <t>通知</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.api</t>
-  </si>
-  <si>
-    <t>API统计</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.api-test</t>
-  </si>
-  <si>
-    <t>接口</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.instances</t>
-  </si>
-  <si>
-    <t>微服务实例</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.menu</t>
-  </si>
-  <si>
-    <t>菜单管理</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.role</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.user</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.announcement</t>
-  </si>
-  <si>
-    <t>系统公告</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.message-log</t>
-  </si>
-  <si>
-    <t>消息日志</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.platform-overview</t>
-  </si>
-  <si>
-    <t>平台概览</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.root-user</t>
-  </si>
-  <si>
-    <t>Root用户</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.saga-manager.saga</t>
-  </si>
-  <si>
-    <t>事务定义</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.saga-manager.saga-instance</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.task-detail</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.operation.manager.menu-statistics</t>
-  </si>
-  <si>
-    <t>菜单统计</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.setting.general-setting</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.setting.notify.msg-config</t>
-  </si>
-  <si>
-    <t>通知配置</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.setting.notify.msg-service</t>
-  </si>
-  <si>
-    <t>消息服务</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.setting.security</t>
-  </si>
-  <si>
     <t>choerodon.code.project.setting.client</t>
   </si>
   <si>
@@ -2588,7 +2492,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>21</t>
+      <t>38</t>
     </r>
     <r>
       <rPr>
@@ -2614,7 +2518,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>22</t>
+      <t>39</t>
     </r>
     <r>
       <rPr>
@@ -2629,448 +2533,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>37</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>38</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>fd_help_doc-4</t>
   </si>
   <si>
@@ -3098,57 +2560,6 @@
     <t>fd_help_doc-12</t>
   </si>
   <si>
-    <t>fd_help_doc-14</t>
-  </si>
-  <si>
-    <t>fd_help_doc-16</t>
-  </si>
-  <si>
-    <t>fd_help_doc-17</t>
-  </si>
-  <si>
-    <t>fd_help_doc-18</t>
-  </si>
-  <si>
-    <t>fd_help_doc-19</t>
-  </si>
-  <si>
-    <t>fd_help_doc-20</t>
-  </si>
-  <si>
-    <t>fd_help_doc-21</t>
-  </si>
-  <si>
-    <t>fd_help_doc-22</t>
-  </si>
-  <si>
-    <t>fd_help_doc-23</t>
-  </si>
-  <si>
-    <t>fd_help_doc-24</t>
-  </si>
-  <si>
-    <t>fd_help_doc-25</t>
-  </si>
-  <si>
-    <t>fd_help_doc-26</t>
-  </si>
-  <si>
-    <t>fd_help_doc-27</t>
-  </si>
-  <si>
-    <t>fd_help_doc-28</t>
-  </si>
-  <si>
-    <t>fd_help_doc-29</t>
-  </si>
-  <si>
-    <t>fd_help_doc-30</t>
-  </si>
-  <si>
-    <t>fd_help_doc-31</t>
-  </si>
-  <si>
     <t>fd_help_doc-32</t>
   </si>
   <si>
@@ -3158,65 +2569,7 @@
     <t>fd_help_doc-34</t>
   </si>
   <si>
-    <r>
-      <t>iam_menu-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>事务实例</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mial</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ebhook</t>
-    </r>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -3405,7 +2758,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3434,6 +2787,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFD9"/>
         <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3543,7 +2902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3613,6 +2972,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3628,26 +2999,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4018,11 +3378,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -4031,21 +3391,21 @@
       <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -4156,11 +3516,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="34" t="s">
@@ -4198,19 +3558,19 @@
       <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="36" t="s">
@@ -4235,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -4308,677 +3668,309 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="42" customFormat="1">
-      <c r="E8" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="42" t="s">
+    <row r="8" spans="1:10" s="37" customFormat="1">
+      <c r="E8" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="42" customFormat="1">
-      <c r="E9" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="42" t="s">
+    <row r="9" spans="1:10" s="37" customFormat="1">
+      <c r="E9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="42" customFormat="1">
-      <c r="E10" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="42" t="s">
+    <row r="10" spans="1:10" s="37" customFormat="1">
+      <c r="E10" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="42" customFormat="1">
-      <c r="E11" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="42" t="s">
+    <row r="11" spans="1:10" s="37" customFormat="1">
+      <c r="E11" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="42" t="s">
+      <c r="G11" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="42" customFormat="1">
-      <c r="E12" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="42" t="s">
+    <row r="12" spans="1:10" s="37" customFormat="1">
+      <c r="E12" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="42" customFormat="1">
-      <c r="E13" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="42" t="s">
+    <row r="13" spans="1:10" s="37" customFormat="1">
+      <c r="E13" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="42" customFormat="1">
-      <c r="E14" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="42" t="s">
+    <row r="14" spans="1:10" s="37" customFormat="1">
+      <c r="E14" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="42" customFormat="1">
-      <c r="E15" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="42" t="s">
+    <row r="15" spans="1:10" s="37" customFormat="1">
+      <c r="E15" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="42" customFormat="1" ht="16.8" customHeight="1">
-      <c r="E16" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="42" t="s">
+    <row r="16" spans="1:10" s="37" customFormat="1" ht="16.8" customHeight="1">
+      <c r="E16" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="5:10" s="42" customFormat="1" ht="16.8" customHeight="1">
-      <c r="E17" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="42" t="s">
+    <row r="17" spans="1:10" s="37" customFormat="1" ht="16.8" customHeight="1">
+      <c r="E17" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="5:10" s="42" customFormat="1">
-      <c r="E18" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="42" t="s">
+    <row r="18" spans="1:10" s="51" customFormat="1">
+      <c r="E18" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="5:10" s="42" customFormat="1">
-      <c r="E19" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="42" t="s">
+    <row r="19" spans="1:10" s="51" customFormat="1">
+      <c r="E19" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="5:10" s="42" customFormat="1">
-      <c r="E20" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="42" t="s">
+    <row r="20" spans="1:10" s="37" customFormat="1">
+      <c r="E20" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="5:10" s="42" customFormat="1">
-      <c r="E21" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="42" t="s">
+    <row r="21" spans="1:10" s="51" customFormat="1">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="51" customFormat="1">
+      <c r="E22" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G22" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H22" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" s="42" customFormat="1">
-      <c r="E22" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" s="42" customFormat="1">
-      <c r="E23" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" s="42" customFormat="1">
-      <c r="E24" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" s="42" customFormat="1">
-      <c r="E25" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" s="42" customFormat="1">
-      <c r="E26" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" s="42" customFormat="1">
-      <c r="E27" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" s="42" customFormat="1">
-      <c r="E28" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J28" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10" s="42" customFormat="1">
-      <c r="E29" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10" s="42" customFormat="1">
-      <c r="E30" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10" s="42" customFormat="1">
-      <c r="E31" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" s="42" customFormat="1">
-      <c r="E32" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" s="42" customFormat="1">
-      <c r="E33" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" s="42" customFormat="1">
-      <c r="E34" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" s="42" customFormat="1">
-      <c r="E35" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" s="42" customFormat="1">
-      <c r="E36" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" s="42" customFormat="1">
-      <c r="E37" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="I37" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" s="42" customFormat="1">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" s="44" t="s">
+      <c r="I22" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" s="42" customFormat="1">
-      <c r="E39" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="I39" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J39" s="43">
+      <c r="J22" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="E40" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" t="s">
-        <v>83</v>
-      </c>
-      <c r="I40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40" s="43">
-        <v>0</v>
-      </c>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:I8"/>
@@ -4989,10 +3981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -5070,14 +4062,14 @@
         <f>菜单!E8</f>
         <v>iam_menu-8</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="42">
         <v>0</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>117341</v>
+        <v>119728</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5089,14 +4081,14 @@
         <f>菜单!E9</f>
         <v>iam_menu-9</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="42">
         <v>0</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>117339</v>
+        <v>119249</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5108,546 +4100,238 @@
         <f>菜单!E10</f>
         <v>iam_menu-10</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="42">
         <v>0</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>117340</v>
+        <v>119730</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="D11" s="1"/>
       <c r="E11" s="6" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="F11" t="str">
         <f>菜单!E11</f>
         <v>iam_menu-11</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="42">
         <v>0</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>117345</v>
+        <v>119738</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.8" customHeight="1">
       <c r="D12" s="1"/>
       <c r="E12" s="6" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="F12" t="str">
         <f>菜单!E12</f>
         <v>iam_menu-12</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="42">
         <v>0</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>117346</v>
+        <v>119740</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="D13" s="1"/>
       <c r="E13" s="6" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="F13" t="str">
         <f>菜单!E13</f>
         <v>iam_menu-13</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="42">
         <v>0</v>
       </c>
       <c r="H13" s="8">
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <v>117343</v>
+        <v>119729</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="D14" s="1"/>
       <c r="E14" s="6" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="F14" t="str">
         <f>菜单!E14</f>
         <v>iam_menu-14</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="42">
         <v>0</v>
       </c>
       <c r="H14" s="8">
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>117354</v>
+        <v>119741</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="D15" s="1"/>
       <c r="E15" s="6" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="F15" t="str">
         <f>菜单!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="42">
         <v>0</v>
       </c>
       <c r="H15" s="8">
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <v>117347</v>
+        <v>119257</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="D16" s="1"/>
       <c r="E16" s="6" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="F16" t="str">
         <f>菜单!E16</f>
         <v>iam_menu-16</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="42">
         <v>0</v>
       </c>
       <c r="H16" s="8">
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <v>117353</v>
+        <v>119263</v>
       </c>
     </row>
     <row r="17" spans="4:9">
       <c r="D17" s="1"/>
       <c r="E17" s="6" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="F17" t="str">
         <f>菜单!E17</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="42">
         <v>0</v>
       </c>
       <c r="H17" s="8">
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <v>117356</v>
+        <v>119266</v>
       </c>
     </row>
     <row r="18" spans="4:9">
       <c r="D18" s="1"/>
       <c r="E18" s="6" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="F18" t="str">
         <f>菜单!E18</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="42">
         <v>0</v>
       </c>
       <c r="H18" s="8">
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <v>117321</v>
+        <v>119745</v>
       </c>
     </row>
     <row r="19" spans="4:9" ht="16.8" customHeight="1">
       <c r="E19" s="6" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="F19" t="str">
         <f>菜单!E19</f>
         <v>iam_menu-19</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="42">
         <v>0</v>
       </c>
       <c r="H19" s="8">
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>117330</v>
+        <v>119756</v>
       </c>
     </row>
     <row r="20" spans="4:9">
-      <c r="E20" s="6" t="s">
-        <v>173</v>
+      <c r="E20" s="41" t="s">
+        <v>124</v>
       </c>
       <c r="F20" t="str">
         <f>菜单!E21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G20" s="49">
+        <v>iam_menu-38</v>
+      </c>
+      <c r="G20" s="42">
         <v>0</v>
       </c>
       <c r="H20" s="8">
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <v>117381</v>
+        <v>119755</v>
       </c>
     </row>
     <row r="21" spans="4:9">
-      <c r="E21" s="6" t="s">
-        <v>174</v>
+      <c r="E21" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="F21" t="str">
-        <f>菜单!E23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="G21" s="49">
+        <f>菜单!E22</f>
+        <v>iam_menu-39</v>
+      </c>
+      <c r="G21" s="42">
         <v>0</v>
       </c>
       <c r="H21" s="8">
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>117379</v>
+        <v>119744</v>
       </c>
     </row>
     <row r="22" spans="4:9">
-      <c r="D22" s="1"/>
-      <c r="E22" s="6" t="s">
-        <v>175</v>
+      <c r="E22" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="F22" t="str">
-        <f>菜单!E24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G22" s="49">
+        <f>菜单!E20</f>
+        <v>iam_menu-20</v>
+      </c>
+      <c r="G22" s="42">
         <v>0</v>
       </c>
       <c r="H22" s="8">
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>117378</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9">
-      <c r="E23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" t="str">
-        <f>菜单!E25</f>
-        <v>iam_menu-25</v>
-      </c>
-      <c r="G23" s="49">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>117377</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9">
-      <c r="E24" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" t="str">
-        <f>菜单!E26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="G24" s="49">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>117367</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" s="42" customFormat="1">
-      <c r="E25" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="42" t="str">
-        <f>菜单!E27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G25" s="50">
-        <v>0</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="I25" s="8">
-        <v>117369</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" s="42" customFormat="1">
-      <c r="E26" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="42" t="str">
-        <f>菜单!E27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G26" s="50">
-        <v>0</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="I26" s="8">
-        <v>117368</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9">
-      <c r="D27" s="1"/>
-      <c r="E27" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="F27" t="str">
-        <f>菜单!E28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="G27" s="49">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>117360</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9">
-      <c r="E28" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" t="str">
-        <f>菜单!E29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="G28" s="49">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <v>117365</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9">
-      <c r="E29" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" t="str">
-        <f>菜单!E30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="G29" s="49">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <v>117363</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9">
-      <c r="E30" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" t="str">
-        <f>菜单!E31</f>
-        <v>iam_menu-31</v>
-      </c>
-      <c r="G30" s="49">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8">
-        <v>117364</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9">
-      <c r="E31" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" t="str">
-        <f>菜单!E32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="G31" s="49">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
-        <v>117366</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9">
-      <c r="E32" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" t="str">
-        <f>菜单!E33</f>
-        <v>iam_menu-33</v>
-      </c>
-      <c r="G32" s="49">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <v>117374</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33" t="str">
-        <f>菜单!E34</f>
-        <v>iam_menu-34</v>
-      </c>
-      <c r="G33" s="49">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>117370</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" t="str">
-        <f>菜单!E35</f>
-        <v>iam_menu-35</v>
-      </c>
-      <c r="G34" s="49">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
-        <v>117373</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="F35" t="str">
-        <f>菜单!E36</f>
-        <v>iam_menu-36</v>
-      </c>
-      <c r="G35" s="49">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <v>117372</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
-      <c r="E36" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" t="str">
-        <f>菜单!E37</f>
-        <v>iam_menu-37</v>
-      </c>
-      <c r="G36" s="49">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <v>117371</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" t="str">
-        <f>菜单!E38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="G37" s="49">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>117327</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="F38" t="str">
-        <f>菜单!E39</f>
-        <v>iam_menu-39</v>
-      </c>
-      <c r="G38" s="49">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8">
-        <v>117320</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="F39" t="str">
-        <f>菜单!E40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="G39" s="49">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8">
-        <v>117376</v>
+        <v>119277</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/help-doc-iam.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/help-doc-iam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单!$A$7:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单!$A$7:$H$8</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="127">
   <si>
     <r>
       <rPr>
@@ -2015,12 +2015,6 @@
     <t>#code</t>
   </si>
   <si>
-    <t>name:zh_CN</t>
-  </si>
-  <si>
-    <t>name:en_US</t>
-  </si>
-  <si>
     <t>#fd_level</t>
   </si>
   <si>
@@ -2570,6 +2564,10 @@
   </si>
   <si>
     <t>事务实例</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2902,7 +2900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2984,6 +2982,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2999,17 +3008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3378,11 +3377,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -3391,21 +3390,21 @@
       <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -3516,11 +3515,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="34" t="s">
@@ -3558,19 +3557,19 @@
       <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="36" t="s">
@@ -3595,10 +3594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3607,11 +3606,10 @@
     <col min="5" max="5" width="19.08203125" style="7" customWidth="1"/>
     <col min="6" max="6" width="47.9140625" customWidth="1"/>
     <col min="7" max="7" width="20.9140625" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" customWidth="1"/>
-    <col min="9" max="9" width="9" style="8"/>
+    <col min="8" max="8" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3625,7 +3623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="E4" s="9" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +3634,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3655,325 +3653,277 @@
       <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:9" s="37" customFormat="1">
+      <c r="E8" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="37" customFormat="1">
-      <c r="E8" s="39" t="s">
+      <c r="I8" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="37" customFormat="1">
+      <c r="E9" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="37" customFormat="1">
+      <c r="E10" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="37" customFormat="1">
-      <c r="E9" s="39" t="s">
+      <c r="F10" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="37" customFormat="1">
+      <c r="E11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="37" customFormat="1">
-      <c r="E10" s="39" t="s">
+      <c r="F11" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="37" customFormat="1">
+      <c r="E12" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="37" t="s">
+      <c r="F12" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="37" customFormat="1">
+      <c r="E13" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="37" customFormat="1">
+      <c r="E14" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="37" customFormat="1">
+      <c r="E15" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="37" customFormat="1" ht="16.8" customHeight="1">
+      <c r="E16" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="37" customFormat="1" ht="16.8" customHeight="1">
+      <c r="E17" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="46" customFormat="1">
+      <c r="E18" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="46" customFormat="1">
+      <c r="E19" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="37" customFormat="1">
-      <c r="E11" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="37" customFormat="1">
-      <c r="E12" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="37" customFormat="1">
-      <c r="E13" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="37" t="s">
+      <c r="H19" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="37" customFormat="1">
+      <c r="E20" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="46" customFormat="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="37" customFormat="1">
-      <c r="E14" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="37" customFormat="1">
-      <c r="E15" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="37" customFormat="1" ht="16.8" customHeight="1">
-      <c r="E16" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" ht="16.8" customHeight="1">
-      <c r="E17" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="51" customFormat="1">
-      <c r="E18" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="51" customFormat="1">
-      <c r="E19" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="37" customFormat="1">
-      <c r="E20" s="39" t="s">
+      <c r="H21" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="46" customFormat="1">
+      <c r="E22" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="37" t="s">
+      <c r="F22" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="51" customFormat="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="48" t="s">
+      <c r="G22" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="51" customFormat="1">
-      <c r="E22" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="52">
+      <c r="H22" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="47">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I8"/>
+  <autoFilter ref="A7:H8"/>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3983,7 +3933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -4032,31 +3982,31 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" t="str">
         <f>菜单!E8</f>
@@ -4075,7 +4025,7 @@
     <row r="9" spans="1:9">
       <c r="D9" s="1"/>
       <c r="E9" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" t="str">
         <f>菜单!E9</f>
@@ -4094,7 +4044,7 @@
     <row r="10" spans="1:9">
       <c r="D10" s="1"/>
       <c r="E10" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" t="str">
         <f>菜单!E10</f>
@@ -4113,7 +4063,7 @@
     <row r="11" spans="1:9">
       <c r="D11" s="1"/>
       <c r="E11" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F11" t="str">
         <f>菜单!E11</f>
@@ -4132,7 +4082,7 @@
     <row r="12" spans="1:9" ht="16.8" customHeight="1">
       <c r="D12" s="1"/>
       <c r="E12" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F12" t="str">
         <f>菜单!E12</f>
@@ -4151,7 +4101,7 @@
     <row r="13" spans="1:9">
       <c r="D13" s="1"/>
       <c r="E13" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" t="str">
         <f>菜单!E13</f>
@@ -4170,7 +4120,7 @@
     <row r="14" spans="1:9">
       <c r="D14" s="1"/>
       <c r="E14" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F14" t="str">
         <f>菜单!E14</f>
@@ -4189,7 +4139,7 @@
     <row r="15" spans="1:9">
       <c r="D15" s="1"/>
       <c r="E15" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F15" t="str">
         <f>菜单!E15</f>
@@ -4208,7 +4158,7 @@
     <row r="16" spans="1:9">
       <c r="D16" s="1"/>
       <c r="E16" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F16" t="str">
         <f>菜单!E16</f>
@@ -4227,7 +4177,7 @@
     <row r="17" spans="4:9">
       <c r="D17" s="1"/>
       <c r="E17" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F17" t="str">
         <f>菜单!E17</f>
@@ -4246,7 +4196,7 @@
     <row r="18" spans="4:9">
       <c r="D18" s="1"/>
       <c r="E18" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18" t="str">
         <f>菜单!E18</f>
@@ -4264,7 +4214,7 @@
     </row>
     <row r="19" spans="4:9" ht="16.8" customHeight="1">
       <c r="E19" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" t="str">
         <f>菜单!E19</f>
@@ -4282,7 +4232,7 @@
     </row>
     <row r="20" spans="4:9">
       <c r="E20" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F20" t="str">
         <f>菜单!E21</f>
@@ -4300,7 +4250,7 @@
     </row>
     <row r="21" spans="4:9">
       <c r="E21" s="41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F21" t="str">
         <f>菜单!E22</f>
@@ -4318,7 +4268,7 @@
     </row>
     <row r="22" spans="4:9">
       <c r="E22" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F22" t="str">
         <f>菜单!E20</f>
